--- a/library/FM-QP-DILG-ISTMS-RO-17-02 _ICT_TA.xlsx
+++ b/library/FM-QP-DILG-ISTMS-RO-17-02 _ICT_TA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ISSUE/CONCERN</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>PERIOD:</t>
-  </si>
-  <si>
-    <t>PREPARED BY:</t>
-  </si>
-  <si>
-    <t>REVIEWED BY:</t>
-  </si>
-  <si>
-    <t>APPROVED BY:</t>
-  </si>
-  <si>
-    <t>Process Owner</t>
   </si>
   <si>
     <t>DATE</t>
@@ -92,12 +80,6 @@
     <t>TOTAL PROCESSING TIME</t>
   </si>
   <si>
-    <t>HERNANDO A. CRUZ</t>
-  </si>
-  <si>
-    <t>LOIDA S. LINSON</t>
-  </si>
-  <si>
     <t>ICT TECHNICAL ASSISTANCE REFERENCE NO.</t>
   </si>
   <si>
@@ -116,22 +98,6 @@
     <t>08.01.22</t>
   </si>
   <si>
-    <t>DANILO TAM</t>
-  </si>
-  <si>
-    <t>OIC-Division Chief</t>
-  </si>
-  <si>
-    <t>ISTMS Deputy QMR</t>
-  </si>
-  <si>
-    <t>NOTED BY:</t>
-  </si>
-  <si>
-    <t>Division Chief (CO)/
-Regional Deputy QMR</t>
-  </si>
-  <si>
     <t>FM-QP-DILG-ISTMS-RO-17-02</t>
   </si>
 </sst>
@@ -139,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,20 +158,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -223,33 +175,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -404,12 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,69 +346,68 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -497,59 +418,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,10 +781,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,169 +803,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="15"/>
-      <c r="L2" s="27" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="11"/>
+      <c r="L2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="30" t="s">
-        <v>24</v>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="15"/>
-      <c r="L3" s="44" t="s">
-        <v>33</v>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="L3" s="26" t="s">
+        <v>22</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="L4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="L5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="L4" s="47" t="s">
-        <v>2</v>
+      <c r="I8" s="20" t="s">
+        <v>11</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>3</v>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20" t="s">
+        <v>9</v>
       </c>
-      <c r="N4" s="48" t="s">
-        <v>4</v>
+      <c r="L8" s="21"/>
+      <c r="M8" s="32" t="s">
+        <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="L5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="N8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>0</v>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>23</v>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>15</v>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="34" t="s">
-        <v>13</v>
+      <c r="J9" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="26" t="s">
-        <v>19</v>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="N8" s="26" t="s">
-        <v>18</v>
+      <c r="L9" s="8" t="s">
+        <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1075,13 +975,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1091,13 +991,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1107,13 +1007,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1123,13 +1023,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1139,13 +1039,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1155,13 +1055,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1171,13 +1071,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1187,13 +1087,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1203,13 +1103,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1219,13 +1119,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1235,13 +1135,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1251,13 +1151,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1266,30 +1166,30 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1298,14 +1198,14 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1314,14 +1214,14 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1330,14 +1230,14 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1346,14 +1246,14 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1362,30 +1262,30 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1394,14 +1294,14 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1410,14 +1310,14 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1426,14 +1326,14 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1442,14 +1342,14 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1458,194 +1358,2711 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-    </row>
-    <row r="36" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="E36" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="H36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="E39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="H39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="36"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36"/>
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="36"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="36"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="36"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="36"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="36"/>
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B45" s="36"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="36"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B46" s="36"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="36"/>
+      <c r="G46" s="42"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B47" s="36"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="36"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B48" s="36"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="36"/>
+      <c r="G48" s="42"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="36"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="36"/>
+      <c r="G49" s="42"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="36"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="36"/>
+      <c r="G50" s="42"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="36"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="36"/>
+      <c r="G51" s="42"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="36"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="36"/>
+      <c r="G52" s="42"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="36"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="36"/>
+      <c r="G53" s="42"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="36"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="36"/>
+      <c r="G54" s="42"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="36"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="36"/>
+      <c r="G55" s="42"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="36"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="36"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="36"/>
+      <c r="G57" s="42"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="36"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="36"/>
+      <c r="G58" s="42"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="36"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="36"/>
+      <c r="G59" s="42"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="36"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="36"/>
+      <c r="G60" s="42"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="36"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="36"/>
+      <c r="G61" s="42"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="36"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="36"/>
+      <c r="G62" s="42"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="36"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="36"/>
+      <c r="G63" s="42"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="36"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="36"/>
+      <c r="G64" s="42"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="36"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="36"/>
+      <c r="G65" s="42"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="36"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="36"/>
+      <c r="G66" s="42"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="36"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="36"/>
+      <c r="G67" s="42"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="36"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="36"/>
+      <c r="G68" s="42"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="36"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="36"/>
+      <c r="G69" s="42"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="36"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="36"/>
+      <c r="G70" s="42"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="36"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="36"/>
+      <c r="G71" s="42"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="36"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="36"/>
+      <c r="G72" s="42"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="36"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="36"/>
+      <c r="G73" s="42"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="36"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="36"/>
+      <c r="G74" s="42"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="36"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="36"/>
+      <c r="G75" s="42"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="36"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="36"/>
+      <c r="G76" s="42"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="36"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="36"/>
+      <c r="G77" s="42"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="36"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="36"/>
+      <c r="G78" s="42"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="36"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="36"/>
+      <c r="G79" s="42"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="36"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="36"/>
+      <c r="G80" s="42"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="36"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="36"/>
+      <c r="G81" s="42"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="36"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="36"/>
+      <c r="G82" s="42"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="36"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="36"/>
+      <c r="G83" s="42"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="36"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="36"/>
+      <c r="G84" s="42"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="36"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="36"/>
+      <c r="G85" s="42"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="36"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="36"/>
+      <c r="G86" s="42"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="36"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="36"/>
+      <c r="G87" s="42"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="36"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="36"/>
+      <c r="G88" s="42"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="36"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="36"/>
+      <c r="G89" s="42"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="36"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="36"/>
+      <c r="G90" s="42"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="36"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="36"/>
+      <c r="G91" s="42"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="36"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="36"/>
+      <c r="G92" s="42"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="36"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="36"/>
+      <c r="G93" s="42"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="36"/>
+      <c r="G94" s="42"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="36"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="36"/>
+      <c r="G95" s="42"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="36"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="36"/>
+      <c r="G96" s="42"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="36"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="36"/>
+      <c r="G97" s="42"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B98" s="36"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="36"/>
+      <c r="G98" s="42"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B99" s="36"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="36"/>
+      <c r="G99" s="42"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B100" s="36"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="36"/>
+      <c r="G100" s="42"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="36"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="36"/>
+      <c r="G101" s="42"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="36"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="36"/>
+      <c r="G102" s="42"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B103" s="36"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="36"/>
+      <c r="G103" s="42"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B104" s="36"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="36"/>
+      <c r="G104" s="42"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="36"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="36"/>
+      <c r="G105" s="42"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="36"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="36"/>
+      <c r="G106" s="42"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="36"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="36"/>
+      <c r="G107" s="42"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="36"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="36"/>
+      <c r="G108" s="42"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="36"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="36"/>
+      <c r="G109" s="42"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="36"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="36"/>
+      <c r="G110" s="42"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="36"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="36"/>
+      <c r="G111" s="42"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="36"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="36"/>
+      <c r="G112" s="42"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="36"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="36"/>
+      <c r="G113" s="42"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B114" s="36"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="36"/>
+      <c r="G114" s="42"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="36"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="36"/>
+      <c r="G115" s="42"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="36"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="36"/>
+      <c r="G116" s="42"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="36"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="36"/>
+      <c r="G117" s="42"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B118" s="36"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="36"/>
+      <c r="G118" s="42"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B119" s="36"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="36"/>
+      <c r="G119" s="42"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B120" s="36"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="36"/>
+      <c r="G120" s="42"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B121" s="36"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="36"/>
+      <c r="G121" s="42"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B122" s="36"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="36"/>
+      <c r="G122" s="42"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B123" s="36"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="36"/>
+      <c r="G123" s="42"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B124" s="36"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="36"/>
+      <c r="G124" s="42"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B125" s="36"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="36"/>
+      <c r="G125" s="42"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B126" s="36"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="36"/>
+      <c r="G126" s="42"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B127" s="36"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="36"/>
+      <c r="G127" s="42"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B128" s="36"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="36"/>
+      <c r="G128" s="42"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B129" s="36"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="36"/>
+      <c r="G129" s="42"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="36"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="36"/>
+      <c r="G130" s="42"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="36"/>
+      <c r="G131" s="42"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="36"/>
+      <c r="G132" s="42"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="36"/>
+      <c r="G133" s="42"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="36"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="36"/>
+      <c r="G134" s="42"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="36"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="36"/>
+      <c r="G135" s="42"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B136" s="36"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="36"/>
+      <c r="G136" s="42"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="36"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="36"/>
+      <c r="G137" s="42"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="36"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="36"/>
+      <c r="G138" s="42"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="36"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="36"/>
+      <c r="G139" s="42"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="36"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="36"/>
+      <c r="G140" s="42"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="36"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="36"/>
+      <c r="G141" s="42"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="36"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="36"/>
+      <c r="G142" s="42"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B143" s="36"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="36"/>
+      <c r="G143" s="42"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B144" s="36"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="36"/>
+      <c r="G144" s="42"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B145" s="36"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="36"/>
+      <c r="G145" s="42"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B146" s="36"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="36"/>
+      <c r="G146" s="42"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B147" s="36"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="36"/>
+      <c r="G147" s="42"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="36"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="36"/>
+      <c r="G148" s="42"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B149" s="36"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="36"/>
+      <c r="G149" s="42"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B150" s="36"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="36"/>
+      <c r="G150" s="42"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B151" s="36"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="36"/>
+      <c r="G151" s="42"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="36"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="36"/>
+      <c r="G152" s="42"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B153" s="36"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="36"/>
+      <c r="G153" s="42"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B154" s="36"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="36"/>
+      <c r="G154" s="42"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B155" s="36"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="36"/>
+      <c r="G155" s="42"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B156" s="36"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="36"/>
+      <c r="G156" s="42"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B157" s="36"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="38"/>
+      <c r="E157" s="36"/>
+      <c r="G157" s="42"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B158" s="36"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="36"/>
+      <c r="G158" s="42"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B159" s="36"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="36"/>
+      <c r="G159" s="42"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B160" s="36"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="36"/>
+      <c r="G160" s="42"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B161" s="36"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="36"/>
+      <c r="G161" s="42"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B162" s="36"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="36"/>
+      <c r="G162" s="42"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B163" s="36"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="36"/>
+      <c r="G163" s="42"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B164" s="36"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="38"/>
+      <c r="E164" s="36"/>
+      <c r="G164" s="42"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B165" s="36"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="36"/>
+      <c r="G165" s="42"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B166" s="36"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="36"/>
+      <c r="G166" s="42"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B167" s="36"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="36"/>
+      <c r="G167" s="42"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B168" s="36"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="36"/>
+      <c r="G168" s="42"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B169" s="36"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="36"/>
+      <c r="G169" s="42"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B170" s="36"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="36"/>
+      <c r="G170" s="42"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B171" s="36"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="36"/>
+      <c r="G171" s="42"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B172" s="36"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38"/>
+      <c r="E172" s="36"/>
+      <c r="G172" s="42"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B173" s="36"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="36"/>
+      <c r="G173" s="42"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B174" s="36"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="38"/>
+      <c r="E174" s="36"/>
+      <c r="G174" s="42"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B175" s="36"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38"/>
+      <c r="E175" s="36"/>
+      <c r="G175" s="42"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B176" s="36"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="36"/>
+      <c r="G176" s="42"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B177" s="36"/>
+      <c r="C177" s="38"/>
+      <c r="D177" s="38"/>
+      <c r="E177" s="36"/>
+      <c r="G177" s="42"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B178" s="36"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="36"/>
+      <c r="G178" s="42"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B179" s="36"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="36"/>
+      <c r="G179" s="42"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B180" s="36"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="38"/>
+      <c r="E180" s="36"/>
+      <c r="G180" s="42"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B181" s="36"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38"/>
+      <c r="E181" s="36"/>
+      <c r="G181" s="42"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B182" s="36"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="36"/>
+      <c r="G182" s="42"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B183" s="36"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38"/>
+      <c r="E183" s="36"/>
+      <c r="G183" s="42"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B184" s="36"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="36"/>
+      <c r="G184" s="42"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B185" s="36"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="38"/>
+      <c r="E185" s="36"/>
+      <c r="G185" s="42"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B186" s="36"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38"/>
+      <c r="E186" s="36"/>
+      <c r="G186" s="42"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B187" s="36"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38"/>
+      <c r="E187" s="36"/>
+      <c r="G187" s="42"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B188" s="36"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="38"/>
+      <c r="E188" s="36"/>
+      <c r="G188" s="42"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B189" s="36"/>
+      <c r="C189" s="38"/>
+      <c r="D189" s="38"/>
+      <c r="E189" s="36"/>
+      <c r="G189" s="42"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B190" s="36"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="38"/>
+      <c r="E190" s="36"/>
+      <c r="G190" s="42"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B191" s="36"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="38"/>
+      <c r="E191" s="36"/>
+      <c r="G191" s="42"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B192" s="36"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="36"/>
+      <c r="G192" s="42"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B193" s="36"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="36"/>
+      <c r="G193" s="42"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B194" s="36"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="36"/>
+      <c r="G194" s="42"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B195" s="36"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="36"/>
+      <c r="G195" s="42"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B196" s="36"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38"/>
+      <c r="E196" s="36"/>
+      <c r="G196" s="42"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B197" s="36"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="38"/>
+      <c r="E197" s="36"/>
+      <c r="G197" s="42"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B198" s="36"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="38"/>
+      <c r="E198" s="36"/>
+      <c r="G198" s="42"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B199" s="36"/>
+      <c r="C199" s="38"/>
+      <c r="D199" s="38"/>
+      <c r="E199" s="36"/>
+      <c r="G199" s="42"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B200" s="36"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="38"/>
+      <c r="E200" s="36"/>
+      <c r="G200" s="42"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B201" s="36"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="38"/>
+      <c r="E201" s="36"/>
+      <c r="G201" s="42"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B202" s="36"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="38"/>
+      <c r="E202" s="36"/>
+      <c r="G202" s="42"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B203" s="36"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="38"/>
+      <c r="E203" s="36"/>
+      <c r="G203" s="42"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B204" s="36"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="38"/>
+      <c r="E204" s="36"/>
+      <c r="G204" s="42"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B205" s="36"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="38"/>
+      <c r="E205" s="36"/>
+      <c r="G205" s="42"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B206" s="36"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="38"/>
+      <c r="E206" s="36"/>
+      <c r="G206" s="42"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B207" s="36"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="38"/>
+      <c r="E207" s="36"/>
+      <c r="G207" s="42"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B208" s="36"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="36"/>
+      <c r="G208" s="42"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B209" s="36"/>
+      <c r="C209" s="38"/>
+      <c r="D209" s="38"/>
+      <c r="E209" s="36"/>
+      <c r="G209" s="42"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B210" s="36"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="38"/>
+      <c r="E210" s="36"/>
+      <c r="G210" s="42"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B211" s="36"/>
+      <c r="C211" s="38"/>
+      <c r="D211" s="38"/>
+      <c r="E211" s="36"/>
+      <c r="G211" s="42"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B212" s="36"/>
+      <c r="C212" s="38"/>
+      <c r="D212" s="38"/>
+      <c r="E212" s="36"/>
+      <c r="G212" s="42"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B213" s="36"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="38"/>
+      <c r="E213" s="36"/>
+      <c r="G213" s="42"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B214" s="36"/>
+      <c r="C214" s="38"/>
+      <c r="D214" s="38"/>
+      <c r="E214" s="36"/>
+      <c r="G214" s="42"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B215" s="36"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38"/>
+      <c r="E215" s="36"/>
+      <c r="G215" s="42"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B216" s="36"/>
+      <c r="C216" s="38"/>
+      <c r="D216" s="38"/>
+      <c r="E216" s="36"/>
+      <c r="G216" s="42"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B217" s="36"/>
+      <c r="C217" s="38"/>
+      <c r="D217" s="38"/>
+      <c r="E217" s="36"/>
+      <c r="G217" s="42"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B218" s="36"/>
+      <c r="C218" s="38"/>
+      <c r="D218" s="38"/>
+      <c r="E218" s="36"/>
+      <c r="G218" s="42"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B219" s="36"/>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="36"/>
+      <c r="G219" s="42"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B220" s="36"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38"/>
+      <c r="E220" s="36"/>
+      <c r="G220" s="42"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B221" s="36"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
+      <c r="E221" s="36"/>
+      <c r="G221" s="42"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B222" s="36"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="36"/>
+      <c r="G222" s="42"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B223" s="36"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38"/>
+      <c r="E223" s="36"/>
+      <c r="G223" s="42"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B224" s="36"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="38"/>
+      <c r="E224" s="36"/>
+      <c r="G224" s="42"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B225" s="36"/>
+      <c r="C225" s="38"/>
+      <c r="D225" s="38"/>
+      <c r="E225" s="36"/>
+      <c r="G225" s="42"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B226" s="36"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="38"/>
+      <c r="E226" s="36"/>
+      <c r="G226" s="42"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B227" s="36"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="38"/>
+      <c r="E227" s="36"/>
+      <c r="G227" s="42"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B228" s="36"/>
+      <c r="C228" s="38"/>
+      <c r="D228" s="38"/>
+      <c r="E228" s="36"/>
+      <c r="G228" s="42"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B229" s="36"/>
+      <c r="C229" s="38"/>
+      <c r="D229" s="38"/>
+      <c r="E229" s="36"/>
+      <c r="G229" s="42"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B230" s="36"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="36"/>
+      <c r="G230" s="42"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B231" s="36"/>
+      <c r="C231" s="38"/>
+      <c r="D231" s="38"/>
+      <c r="E231" s="36"/>
+      <c r="G231" s="42"/>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B232" s="36"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="38"/>
+      <c r="E232" s="36"/>
+      <c r="G232" s="42"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B233" s="36"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="38"/>
+      <c r="E233" s="36"/>
+      <c r="G233" s="42"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B234" s="36"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="36"/>
+      <c r="G234" s="42"/>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B235" s="36"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="38"/>
+      <c r="E235" s="36"/>
+      <c r="G235" s="42"/>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B236" s="36"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38"/>
+      <c r="E236" s="36"/>
+      <c r="G236" s="42"/>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B237" s="36"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="36"/>
+      <c r="G237" s="42"/>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B238" s="36"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="38"/>
+      <c r="E238" s="36"/>
+      <c r="G238" s="42"/>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B239" s="36"/>
+      <c r="C239" s="38"/>
+      <c r="D239" s="38"/>
+      <c r="E239" s="36"/>
+      <c r="G239" s="42"/>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B240" s="36"/>
+      <c r="C240" s="38"/>
+      <c r="D240" s="38"/>
+      <c r="E240" s="36"/>
+      <c r="G240" s="42"/>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B241" s="36"/>
+      <c r="C241" s="38"/>
+      <c r="D241" s="38"/>
+      <c r="E241" s="36"/>
+      <c r="G241" s="42"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B242" s="36"/>
+      <c r="C242" s="38"/>
+      <c r="D242" s="38"/>
+      <c r="E242" s="36"/>
+      <c r="G242" s="42"/>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B243" s="36"/>
+      <c r="C243" s="38"/>
+      <c r="D243" s="38"/>
+      <c r="E243" s="36"/>
+      <c r="G243" s="42"/>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B244" s="36"/>
+      <c r="C244" s="38"/>
+      <c r="D244" s="38"/>
+      <c r="E244" s="36"/>
+      <c r="G244" s="42"/>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B245" s="36"/>
+      <c r="C245" s="38"/>
+      <c r="D245" s="38"/>
+      <c r="E245" s="36"/>
+      <c r="G245" s="42"/>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B246" s="36"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="38"/>
+      <c r="E246" s="36"/>
+      <c r="G246" s="42"/>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B247" s="36"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="38"/>
+      <c r="E247" s="36"/>
+      <c r="G247" s="42"/>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B248" s="36"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="38"/>
+      <c r="E248" s="36"/>
+      <c r="G248" s="42"/>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B249" s="36"/>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="36"/>
+      <c r="G249" s="42"/>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B250" s="36"/>
+      <c r="C250" s="38"/>
+      <c r="D250" s="38"/>
+      <c r="E250" s="36"/>
+      <c r="G250" s="42"/>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B251" s="36"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="38"/>
+      <c r="E251" s="36"/>
+      <c r="G251" s="42"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B252" s="36"/>
+      <c r="C252" s="38"/>
+      <c r="D252" s="38"/>
+      <c r="E252" s="36"/>
+      <c r="G252" s="42"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B253" s="36"/>
+      <c r="C253" s="38"/>
+      <c r="D253" s="38"/>
+      <c r="E253" s="36"/>
+      <c r="G253" s="42"/>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B254" s="36"/>
+      <c r="C254" s="38"/>
+      <c r="D254" s="38"/>
+      <c r="E254" s="36"/>
+      <c r="G254" s="42"/>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B255" s="36"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38"/>
+      <c r="E255" s="36"/>
+      <c r="G255" s="42"/>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B256" s="36"/>
+      <c r="C256" s="38"/>
+      <c r="D256" s="38"/>
+      <c r="E256" s="36"/>
+      <c r="G256" s="42"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B257" s="36"/>
+      <c r="C257" s="38"/>
+      <c r="D257" s="38"/>
+      <c r="E257" s="36"/>
+      <c r="G257" s="42"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B258" s="36"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="38"/>
+      <c r="E258" s="36"/>
+      <c r="G258" s="42"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B259" s="36"/>
+      <c r="C259" s="38"/>
+      <c r="D259" s="38"/>
+      <c r="E259" s="36"/>
+      <c r="G259" s="42"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B260" s="36"/>
+      <c r="C260" s="38"/>
+      <c r="D260" s="38"/>
+      <c r="E260" s="36"/>
+      <c r="G260" s="42"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B261" s="36"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="38"/>
+      <c r="E261" s="36"/>
+      <c r="G261" s="42"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B262" s="36"/>
+      <c r="C262" s="38"/>
+      <c r="D262" s="38"/>
+      <c r="E262" s="36"/>
+      <c r="G262" s="42"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B263" s="36"/>
+      <c r="C263" s="38"/>
+      <c r="D263" s="38"/>
+      <c r="E263" s="36"/>
+      <c r="G263" s="42"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B264" s="36"/>
+      <c r="C264" s="38"/>
+      <c r="D264" s="38"/>
+      <c r="E264" s="36"/>
+      <c r="G264" s="42"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B265" s="36"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="38"/>
+      <c r="E265" s="36"/>
+      <c r="G265" s="42"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B266" s="36"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="38"/>
+      <c r="E266" s="36"/>
+      <c r="G266" s="42"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B267" s="36"/>
+      <c r="C267" s="38"/>
+      <c r="D267" s="38"/>
+      <c r="E267" s="36"/>
+      <c r="G267" s="42"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B268" s="36"/>
+      <c r="C268" s="38"/>
+      <c r="D268" s="38"/>
+      <c r="E268" s="36"/>
+      <c r="G268" s="42"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B269" s="36"/>
+      <c r="C269" s="38"/>
+      <c r="D269" s="38"/>
+      <c r="E269" s="36"/>
+      <c r="G269" s="42"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B270" s="36"/>
+      <c r="C270" s="38"/>
+      <c r="D270" s="38"/>
+      <c r="E270" s="36"/>
+      <c r="G270" s="42"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B271" s="36"/>
+      <c r="C271" s="38"/>
+      <c r="D271" s="38"/>
+      <c r="E271" s="36"/>
+      <c r="G271" s="42"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B272" s="36"/>
+      <c r="C272" s="38"/>
+      <c r="D272" s="38"/>
+      <c r="E272" s="36"/>
+      <c r="G272" s="42"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B273" s="36"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="38"/>
+      <c r="E273" s="36"/>
+      <c r="G273" s="42"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B274" s="36"/>
+      <c r="C274" s="38"/>
+      <c r="D274" s="38"/>
+      <c r="E274" s="36"/>
+      <c r="G274" s="42"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B275" s="36"/>
+      <c r="C275" s="38"/>
+      <c r="D275" s="38"/>
+      <c r="E275" s="36"/>
+      <c r="G275" s="42"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B276" s="36"/>
+      <c r="C276" s="38"/>
+      <c r="D276" s="38"/>
+      <c r="E276" s="36"/>
+      <c r="G276" s="42"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B277" s="36"/>
+      <c r="C277" s="38"/>
+      <c r="D277" s="38"/>
+      <c r="E277" s="36"/>
+      <c r="G277" s="42"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B278" s="36"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="38"/>
+      <c r="E278" s="36"/>
+      <c r="G278" s="42"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B279" s="36"/>
+      <c r="C279" s="38"/>
+      <c r="D279" s="38"/>
+      <c r="E279" s="36"/>
+      <c r="G279" s="42"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B280" s="36"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38"/>
+      <c r="E280" s="36"/>
+      <c r="G280" s="42"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B281" s="36"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38"/>
+      <c r="E281" s="36"/>
+      <c r="G281" s="42"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B282" s="36"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="36"/>
+      <c r="G282" s="42"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B283" s="36"/>
+      <c r="C283" s="38"/>
+      <c r="D283" s="38"/>
+      <c r="E283" s="36"/>
+      <c r="G283" s="42"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B284" s="36"/>
+      <c r="C284" s="38"/>
+      <c r="D284" s="38"/>
+      <c r="E284" s="36"/>
+      <c r="G284" s="42"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B285" s="36"/>
+      <c r="C285" s="38"/>
+      <c r="D285" s="38"/>
+      <c r="E285" s="36"/>
+      <c r="G285" s="42"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B286" s="36"/>
+      <c r="C286" s="38"/>
+      <c r="D286" s="38"/>
+      <c r="E286" s="36"/>
+      <c r="G286" s="42"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B287" s="36"/>
+      <c r="C287" s="38"/>
+      <c r="D287" s="38"/>
+      <c r="E287" s="36"/>
+      <c r="G287" s="42"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B288" s="36"/>
+      <c r="C288" s="38"/>
+      <c r="D288" s="38"/>
+      <c r="E288" s="36"/>
+      <c r="G288" s="42"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B289" s="36"/>
+      <c r="C289" s="38"/>
+      <c r="D289" s="38"/>
+      <c r="E289" s="36"/>
+      <c r="G289" s="42"/>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B290" s="36"/>
+      <c r="C290" s="38"/>
+      <c r="D290" s="38"/>
+      <c r="E290" s="36"/>
+      <c r="G290" s="42"/>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B291" s="36"/>
+      <c r="C291" s="38"/>
+      <c r="D291" s="38"/>
+      <c r="E291" s="36"/>
+      <c r="G291" s="42"/>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B292" s="36"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="38"/>
+      <c r="E292" s="36"/>
+      <c r="G292" s="42"/>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B293" s="36"/>
+      <c r="C293" s="38"/>
+      <c r="D293" s="38"/>
+      <c r="E293" s="36"/>
+      <c r="G293" s="42"/>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B294" s="36"/>
+      <c r="C294" s="38"/>
+      <c r="D294" s="38"/>
+      <c r="E294" s="36"/>
+      <c r="G294" s="42"/>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B295" s="36"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="38"/>
+      <c r="E295" s="36"/>
+      <c r="G295" s="42"/>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B296" s="36"/>
+      <c r="C296" s="38"/>
+      <c r="D296" s="38"/>
+      <c r="E296" s="36"/>
+      <c r="G296" s="42"/>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B297" s="36"/>
+      <c r="C297" s="38"/>
+      <c r="D297" s="38"/>
+      <c r="E297" s="36"/>
+      <c r="G297" s="42"/>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B298" s="36"/>
+      <c r="C298" s="38"/>
+      <c r="D298" s="38"/>
+      <c r="E298" s="36"/>
+      <c r="G298" s="42"/>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B299" s="36"/>
+      <c r="C299" s="38"/>
+      <c r="D299" s="38"/>
+      <c r="E299" s="36"/>
+      <c r="G299" s="42"/>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B300" s="36"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="38"/>
+      <c r="E300" s="36"/>
+      <c r="G300" s="42"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B301" s="36"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="38"/>
+      <c r="E301" s="36"/>
+      <c r="G301" s="42"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B302" s="36"/>
+      <c r="C302" s="38"/>
+      <c r="D302" s="38"/>
+      <c r="E302" s="36"/>
+      <c r="G302" s="42"/>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B303" s="36"/>
+      <c r="C303" s="38"/>
+      <c r="D303" s="38"/>
+      <c r="E303" s="36"/>
+      <c r="G303" s="42"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B304" s="36"/>
+      <c r="C304" s="38"/>
+      <c r="D304" s="38"/>
+      <c r="E304" s="36"/>
+      <c r="G304" s="42"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B305" s="36"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="38"/>
+      <c r="E305" s="36"/>
+      <c r="G305" s="42"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B306" s="36"/>
+      <c r="C306" s="38"/>
+      <c r="D306" s="38"/>
+      <c r="E306" s="36"/>
+      <c r="G306" s="42"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B307" s="36"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="38"/>
+      <c r="E307" s="36"/>
+      <c r="G307" s="42"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B308" s="36"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="38"/>
+      <c r="E308" s="36"/>
+      <c r="G308" s="42"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B309" s="36"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="38"/>
+      <c r="E309" s="36"/>
+      <c r="G309" s="42"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B310" s="36"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="38"/>
+      <c r="E310" s="36"/>
+      <c r="G310" s="42"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B311" s="36"/>
+      <c r="C311" s="38"/>
+      <c r="D311" s="38"/>
+      <c r="E311" s="36"/>
+      <c r="G311" s="42"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B312" s="36"/>
+      <c r="C312" s="38"/>
+      <c r="D312" s="38"/>
+      <c r="E312" s="36"/>
+      <c r="G312" s="42"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B313" s="36"/>
+      <c r="C313" s="38"/>
+      <c r="D313" s="38"/>
+      <c r="E313" s="36"/>
+      <c r="G313" s="42"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B314" s="36"/>
+      <c r="C314" s="38"/>
+      <c r="D314" s="38"/>
+      <c r="E314" s="36"/>
+      <c r="G314" s="42"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B315" s="36"/>
+      <c r="C315" s="38"/>
+      <c r="D315" s="38"/>
+      <c r="E315" s="36"/>
+      <c r="G315" s="42"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B316" s="36"/>
+      <c r="C316" s="38"/>
+      <c r="D316" s="38"/>
+      <c r="E316" s="36"/>
+      <c r="G316" s="42"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B317" s="36"/>
+      <c r="C317" s="38"/>
+      <c r="D317" s="38"/>
+      <c r="E317" s="36"/>
+      <c r="G317" s="42"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B318" s="36"/>
+      <c r="C318" s="38"/>
+      <c r="D318" s="38"/>
+      <c r="E318" s="36"/>
+      <c r="G318" s="42"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B319" s="36"/>
+      <c r="C319" s="38"/>
+      <c r="D319" s="38"/>
+      <c r="E319" s="36"/>
+      <c r="G319" s="42"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B320" s="36"/>
+      <c r="C320" s="38"/>
+      <c r="D320" s="38"/>
+      <c r="E320" s="36"/>
+      <c r="G320" s="42"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B321" s="36"/>
+      <c r="C321" s="38"/>
+      <c r="D321" s="38"/>
+      <c r="E321" s="36"/>
+      <c r="G321" s="42"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B322" s="36"/>
+      <c r="C322" s="38"/>
+      <c r="D322" s="38"/>
+      <c r="E322" s="36"/>
+      <c r="G322" s="42"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B323" s="36"/>
+      <c r="C323" s="38"/>
+      <c r="D323" s="38"/>
+      <c r="E323" s="36"/>
+      <c r="G323" s="42"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B324" s="36"/>
+      <c r="C324" s="38"/>
+      <c r="D324" s="38"/>
+      <c r="E324" s="36"/>
+      <c r="G324" s="42"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B325" s="36"/>
+      <c r="C325" s="38"/>
+      <c r="D325" s="38"/>
+      <c r="E325" s="36"/>
+      <c r="G325" s="42"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B326" s="36"/>
+      <c r="C326" s="38"/>
+      <c r="D326" s="38"/>
+      <c r="E326" s="36"/>
+      <c r="G326" s="42"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B327" s="36"/>
+      <c r="C327" s="38"/>
+      <c r="D327" s="38"/>
+      <c r="E327" s="36"/>
+      <c r="G327" s="42"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B328" s="36"/>
+      <c r="C328" s="38"/>
+      <c r="D328" s="38"/>
+      <c r="E328" s="36"/>
+      <c r="G328" s="42"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B329" s="36"/>
+      <c r="C329" s="38"/>
+      <c r="D329" s="38"/>
+      <c r="E329" s="36"/>
+      <c r="G329" s="42"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B330" s="36"/>
+      <c r="C330" s="38"/>
+      <c r="D330" s="38"/>
+      <c r="E330" s="36"/>
+      <c r="G330" s="42"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B331" s="36"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="38"/>
+      <c r="E331" s="36"/>
+      <c r="G331" s="42"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B332" s="36"/>
+      <c r="C332" s="38"/>
+      <c r="D332" s="38"/>
+      <c r="E332" s="36"/>
+      <c r="G332" s="42"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B333" s="36"/>
+      <c r="C333" s="38"/>
+      <c r="D333" s="38"/>
+      <c r="E333" s="36"/>
+      <c r="G333" s="42"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B334" s="36"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="36"/>
+      <c r="G334" s="42"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B335" s="36"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="38"/>
+      <c r="E335" s="36"/>
+      <c r="G335" s="42"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B336" s="36"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="38"/>
+      <c r="E336" s="36"/>
+      <c r="G336" s="42"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B337" s="36"/>
+      <c r="C337" s="38"/>
+      <c r="D337" s="38"/>
+      <c r="E337" s="36"/>
+      <c r="G337" s="42"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B338" s="36"/>
+      <c r="C338" s="38"/>
+      <c r="D338" s="38"/>
+      <c r="E338" s="36"/>
+      <c r="G338" s="42"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B339" s="36"/>
+      <c r="C339" s="38"/>
+      <c r="D339" s="38"/>
+      <c r="E339" s="36"/>
+      <c r="G339" s="42"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B340" s="36"/>
+      <c r="C340" s="38"/>
+      <c r="D340" s="38"/>
+      <c r="E340" s="36"/>
+      <c r="G340" s="42"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B341" s="36"/>
+      <c r="C341" s="38"/>
+      <c r="D341" s="38"/>
+      <c r="E341" s="36"/>
+      <c r="G341" s="42"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B342" s="36"/>
+      <c r="C342" s="38"/>
+      <c r="D342" s="38"/>
+      <c r="E342" s="36"/>
+      <c r="G342" s="42"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B343" s="36"/>
+      <c r="C343" s="38"/>
+      <c r="D343" s="38"/>
+      <c r="E343" s="36"/>
+      <c r="G343" s="42"/>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B344" s="36"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="38"/>
+      <c r="E344" s="36"/>
+      <c r="G344" s="42"/>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B345" s="36"/>
+      <c r="C345" s="38"/>
+      <c r="D345" s="38"/>
+      <c r="E345" s="36"/>
+      <c r="G345" s="42"/>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B346" s="36"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="38"/>
+      <c r="E346" s="36"/>
+      <c r="G346" s="42"/>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B347" s="36"/>
+      <c r="C347" s="38"/>
+      <c r="D347" s="38"/>
+      <c r="E347" s="36"/>
+      <c r="G347" s="42"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B348" s="36"/>
+      <c r="C348" s="38"/>
+      <c r="D348" s="38"/>
+      <c r="E348" s="36"/>
+      <c r="G348" s="42"/>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B349" s="36"/>
+      <c r="C349" s="38"/>
+      <c r="D349" s="38"/>
+      <c r="E349" s="36"/>
+      <c r="G349" s="42"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B350" s="36"/>
+      <c r="C350" s="38"/>
+      <c r="D350" s="38"/>
+      <c r="E350" s="36"/>
+      <c r="G350" s="42"/>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B351" s="36"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="38"/>
+      <c r="E351" s="36"/>
+      <c r="G351" s="42"/>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B352" s="36"/>
+      <c r="C352" s="38"/>
+      <c r="D352" s="38"/>
+      <c r="E352" s="36"/>
+      <c r="G352" s="42"/>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B353" s="36"/>
+      <c r="C353" s="38"/>
+      <c r="D353" s="38"/>
+      <c r="E353" s="36"/>
+      <c r="G353" s="42"/>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B354" s="36"/>
+      <c r="C354" s="38"/>
+      <c r="D354" s="38"/>
+      <c r="E354" s="36"/>
+      <c r="G354" s="42"/>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B355" s="36"/>
+      <c r="C355" s="38"/>
+      <c r="D355" s="38"/>
+      <c r="E355" s="36"/>
+      <c r="G355" s="42"/>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B356" s="36"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="38"/>
+      <c r="E356" s="36"/>
+      <c r="G356" s="42"/>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B357" s="36"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="38"/>
+      <c r="E357" s="36"/>
+      <c r="G357" s="42"/>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B358" s="36"/>
+      <c r="C358" s="38"/>
+      <c r="D358" s="38"/>
+      <c r="E358" s="36"/>
+      <c r="G358" s="42"/>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B359" s="36"/>
+      <c r="C359" s="38"/>
+      <c r="D359" s="38"/>
+      <c r="E359" s="36"/>
+      <c r="G359" s="42"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B360" s="36"/>
+      <c r="C360" s="38"/>
+      <c r="D360" s="38"/>
+      <c r="E360" s="36"/>
+      <c r="G360" s="42"/>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B361" s="36"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="38"/>
+      <c r="E361" s="36"/>
+      <c r="G361" s="42"/>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B362" s="36"/>
+      <c r="C362" s="38"/>
+      <c r="D362" s="38"/>
+      <c r="E362" s="36"/>
+      <c r="G362" s="42"/>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B363" s="36"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="38"/>
+      <c r="E363" s="36"/>
+      <c r="G363" s="42"/>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B364" s="36"/>
+      <c r="C364" s="38"/>
+      <c r="D364" s="38"/>
+      <c r="E364" s="36"/>
+      <c r="G364" s="42"/>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B365" s="36"/>
+      <c r="C365" s="38"/>
+      <c r="D365" s="38"/>
+      <c r="E365" s="36"/>
+      <c r="G365" s="42"/>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B366" s="36"/>
+      <c r="C366" s="38"/>
+      <c r="D366" s="38"/>
+      <c r="E366" s="36"/>
+      <c r="G366" s="42"/>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B367" s="36"/>
+      <c r="C367" s="38"/>
+      <c r="D367" s="38"/>
+      <c r="E367" s="36"/>
+      <c r="G367" s="42"/>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B368" s="36"/>
+      <c r="C368" s="38"/>
+      <c r="D368" s="38"/>
+      <c r="E368" s="36"/>
+      <c r="G368" s="42"/>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B369" s="36"/>
+      <c r="C369" s="38"/>
+      <c r="D369" s="38"/>
+      <c r="E369" s="36"/>
+      <c r="G369" s="42"/>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B370" s="36"/>
+      <c r="C370" s="38"/>
+      <c r="D370" s="38"/>
+      <c r="E370" s="36"/>
+      <c r="G370" s="42"/>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B371" s="36"/>
+      <c r="C371" s="38"/>
+      <c r="D371" s="38"/>
+      <c r="E371" s="36"/>
+      <c r="G371" s="42"/>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B372" s="36"/>
+      <c r="C372" s="38"/>
+      <c r="D372" s="38"/>
+      <c r="E372" s="36"/>
+      <c r="G372" s="42"/>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B373" s="36"/>
+      <c r="C373" s="38"/>
+      <c r="D373" s="38"/>
+      <c r="E373" s="36"/>
+      <c r="G373" s="42"/>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B374" s="36"/>
+      <c r="C374" s="38"/>
+      <c r="D374" s="38"/>
+      <c r="E374" s="36"/>
+      <c r="G374" s="42"/>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B375" s="36"/>
+      <c r="E375" s="36"/>
+      <c r="G375" s="42"/>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B376" s="36"/>
+      <c r="E376" s="36"/>
+      <c r="G376" s="42"/>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B377" s="36"/>
+      <c r="E377" s="36"/>
+      <c r="G377" s="42"/>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B378" s="36"/>
+      <c r="E378" s="36"/>
+      <c r="G378" s="42"/>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B379" s="36"/>
+      <c r="E379" s="36"/>
+      <c r="G379" s="42"/>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B380" s="36"/>
+      <c r="E380" s="36"/>
+      <c r="G380" s="42"/>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B381" s="36"/>
+      <c r="E381" s="36"/>
+      <c r="G381" s="42"/>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B382" s="36"/>
+      <c r="E382" s="36"/>
+      <c r="G382" s="42"/>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B383" s="36"/>
+      <c r="E383" s="36"/>
+      <c r="G383" s="42"/>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B384" s="36"/>
+      <c r="E384" s="36"/>
+      <c r="G384" s="42"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B385" s="36"/>
+      <c r="E385" s="36"/>
+      <c r="G385" s="42"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B386" s="36"/>
+      <c r="E386" s="36"/>
+      <c r="G386" s="42"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B387" s="36"/>
+      <c r="E387" s="36"/>
+      <c r="G387" s="42"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B388" s="36"/>
+      <c r="E388" s="36"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B389" s="36"/>
+      <c r="E389" s="36"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B390" s="36"/>
+      <c r="E390" s="36"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B391" s="36"/>
+      <c r="E391" s="36"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B392" s="36"/>
+      <c r="E392" s="36"/>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B393" s="36"/>
+      <c r="E393" s="36"/>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B394" s="36"/>
+      <c r="E394" s="36"/>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B395" s="36"/>
+      <c r="E395" s="36"/>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B396" s="36"/>
+      <c r="E396" s="36"/>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B397" s="36"/>
+      <c r="E397" s="36"/>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B398" s="36"/>
+      <c r="E398" s="36"/>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B399" s="36"/>
+      <c r="E399" s="36"/>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B400" s="36"/>
+      <c r="E400" s="36"/>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B401" s="36"/>
+      <c r="E401" s="36"/>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B402" s="36"/>
+      <c r="E402" s="36"/>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B403" s="36"/>
+      <c r="E403" s="36"/>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B404" s="36"/>
+      <c r="E404" s="36"/>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B405" s="36"/>
+      <c r="E405" s="36"/>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B406" s="36"/>
+      <c r="E406" s="36"/>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B407" s="36"/>
+      <c r="E407" s="36"/>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B408" s="36"/>
+      <c r="E408" s="36"/>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B409" s="36"/>
+      <c r="E409" s="36"/>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B410" s="36"/>
+      <c r="E410" s="36"/>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B411" s="36"/>
+      <c r="E411" s="36"/>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B412" s="36"/>
+      <c r="E412" s="36"/>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B413" s="36"/>
+      <c r="E413" s="36"/>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B414" s="36"/>
+      <c r="E414" s="36"/>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B415" s="36"/>
+      <c r="E415" s="36"/>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B416" s="36"/>
+      <c r="E416" s="36"/>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B417" s="36"/>
+      <c r="E417" s="36"/>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B418" s="36"/>
+      <c r="E418" s="36"/>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B419" s="36"/>
+      <c r="E419" s="36"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B420" s="36"/>
+      <c r="E420" s="36"/>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B421" s="36"/>
+      <c r="E421" s="36"/>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B422" s="36"/>
+      <c r="E422" s="36"/>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B423" s="36"/>
+      <c r="E423" s="36"/>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B424" s="36"/>
+      <c r="E424" s="36"/>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B425" s="36"/>
+      <c r="E425" s="36"/>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B426" s="36"/>
+      <c r="E426" s="36"/>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B427" s="36"/>
+      <c r="E427" s="36"/>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B428" s="36"/>
+      <c r="E428" s="36"/>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B429" s="36"/>
+      <c r="E429" s="36"/>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B430" s="36"/>
+      <c r="E430" s="36"/>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B431" s="36"/>
+      <c r="E431" s="36"/>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B432" s="36"/>
+      <c r="E432" s="36"/>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B433" s="36"/>
+      <c r="E433" s="36"/>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B434" s="36"/>
+      <c r="E434" s="36"/>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B435" s="36"/>
+      <c r="E435" s="36"/>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B436" s="36"/>
+      <c r="E436" s="36"/>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B437" s="36"/>
+      <c r="E437" s="36"/>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B438" s="36"/>
+      <c r="E438" s="36"/>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B439" s="36"/>
+      <c r="E439" s="36"/>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B440" s="36"/>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B441" s="36"/>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B442" s="36"/>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B443" s="36"/>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B444" s="36"/>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B445" s="36"/>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B446" s="36"/>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B447" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I42:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F44"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="18">
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:N7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H37:K38"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.51181102362204722"/>
